--- a/biology/Botanique/Platyspermum/Platyspermum.xlsx
+++ b/biology/Botanique/Platyspermum/Platyspermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Platyspermum est un genre désuet de plantes à fleurs.
-En 1814 Georg Franz Hoffmann propose le genre Platyspermum dans la famille des Apiaceae[1].
-Platyspermum Hoffm. est synonyme de Daucus L., 1753[2],[3],[4],[5].
-En 1830 William Jackson Hooker propose le genre Platyspermum dans la famille des Brassicaceae[1].
-Platyspermum Hook. est synonyme de Idahoa A.Nelson &amp; J.F.Macbr., 1913[3],[4],[5].</t>
+En 1814 Georg Franz Hoffmann propose le genre Platyspermum dans la famille des Apiaceae.
+Platyspermum Hoffm. est synonyme de Daucus L., 1753.
+En 1830 William Jackson Hooker propose le genre Platyspermum dans la famille des Brassicaceae.
+Platyspermum Hook. est synonyme de Idahoa A.Nelson &amp; J.F.Macbr., 1913.</t>
         </is>
       </c>
     </row>
@@ -515,9 +527,11 @@
           <t>Espèces comprises</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après World Checklist of Vascular Plants (WCVP)                (28 décembre 2020)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après World Checklist of Vascular Plants (WCVP)                (28 décembre 2020) :
 Platyspermum alatum (Poir.) Schult. (=Daucus carota L.)
 Platyspermum aureum (Desf.) Pomel (=Daucus aureus Desf.)
 Platyspermum grandiflorum Pomel (=Daucus muricatus (L.) L.)
